--- a/Рабочий.xlsx
+++ b/Рабочий.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\вап\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Huawei\NA_pc\GitHub\SchemeMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11034B-7526-4AB1-AF93-4AF26B9D7772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="128"/>
   </bookViews>
   <sheets>
     <sheet name="Схема" sheetId="13" r:id="rId1"/>
@@ -48,7 +47,7 @@
     <definedName name="ФИО2">Штамп!$C$6</definedName>
     <definedName name="Фирма">Штамп!$H$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="149">
   <si>
     <t>Группа</t>
   </si>
@@ -503,11 +502,20 @@
   <si>
     <t>Инженер</t>
   </si>
+  <si>
+    <t>АВР 3</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>ГГГ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -944,11 +952,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1130,6 +1151,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1148,9 +1178,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1188,9 +1218,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1225,7 +1255,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1260,7 +1290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1433,16 +1463,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:S893"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3693,8 +3723,12 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -3705,118 +3739,266 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="M48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
+      <c r="R48" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="S48" s="2"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="13"/>
+      <c r="A49" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="53">
+        <v>1</v>
+      </c>
+      <c r="C49" s="52">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="M49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
+      <c r="R49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="13"/>
+      <c r="A50" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="53">
+        <v>2</v>
+      </c>
+      <c r="C50" s="52">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="M50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
+      <c r="R50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="13"/>
+      <c r="A51" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="53">
+        <v>3</v>
+      </c>
+      <c r="C51" s="52">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="J51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="M51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
+      <c r="R51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="13"/>
+      <c r="A52" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="53">
+        <v>4</v>
+      </c>
+      <c r="C52" s="52">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="M52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
+      <c r="R52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="13"/>
+      <c r="A53" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="53">
+        <v>5</v>
+      </c>
+      <c r="C53" s="52">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="J53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="M53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
+      <c r="R53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
@@ -21466,29 +21648,29 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations xWindow="704" yWindow="543" count="13">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите назание вводного щита_x000a_Для каждого элемента щита это значение должно повторятся" sqref="A5" xr:uid="{DAFD4D70-DD69-48B4-8FF8-C1F25BD755CA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите номер группы по порядку, как она должна быть отображена на схеме._x000a_Вводная группа записывается как &quot;Ввод&quot;_x000a_Выходные группы цифрами от 1_x000a_Если в группе имеется два устройства (например QD и QFD), то на следующей строке номер группы повторяется" sqref="B5" xr:uid="{F598D3CD-33C1-4152-B26C-3F555F1367A3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите номинал в амперах" sqref="G5" xr:uid="{394B40FA-61CD-4180-BE2D-8A18EDDBF9BD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите ток утечки УЗО в милиамперах" sqref="I5" xr:uid="{ED704A65-01FE-4A70-8F2A-A3EAE4D28289}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите длину кабеля в метрах" sqref="L5" xr:uid="{D8BDE018-658C-4600-B5B1-F7CB1A393F8A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите фазу по следующему образцу:_x000a_1,2,3 или 1,3 или 2" sqref="M5" xr:uid="{02EC651D-63A9-4F78-AF36-0E3B8E6F68A3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="При наличии шины заземления выберите значение из списка" sqref="N5" xr:uid="{8A81DAB8-90F3-4796-8E55-40CC4E2D674F}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Введите или выберите устройство из списка" prompt="Введите тип устройства" sqref="C28:C47 D8:D27 D48:D1048576" xr:uid="{509D1F18-CEA8-484F-A4C5-2D0C523F1E39}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите назание вводного щита_x000a_Для каждого элемента щита это значение должно повторятся" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите номер группы по порядку, как она должна быть отображена на схеме._x000a_Вводная группа записывается как &quot;Ввод&quot;_x000a_Выходные группы цифрами от 1_x000a_Если в группе имеется два устройства (например QD и QFD), то на следующей строке номер группы повторяется" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите номинал в амперах" sqref="G5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите ток утечки УЗО в милиамперах" sqref="I5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите длину кабеля в метрах" sqref="L5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите фазу по следующему образцу:_x000a_1,2,3 или 1,3 или 2" sqref="M5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="При наличии шины заземления выберите значение из списка" sqref="N5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Введите или выберите устройство из списка" prompt="Введите тип устройства" sqref="C28:C47 D8:D27 D49:D1048576">
       <formula1>"QF,QD,QFD"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Введено не число, либо число меньше либо равное 0" prompt="Введите число" sqref="F28:F47 G8:G27 G48:G1048576" xr:uid="{0666EC8A-589F-4FDA-B687-5C94AC713624}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Введено не число, либо число меньше либо равное 0" prompt="Введите число" sqref="F28:F47 G8:G27 F49:F53 G48 G54:G1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M28:M47 N8:N27 N48:N1048576" xr:uid="{65877A47-0B1D-4157-BBCB-005AD8944009}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M28:M47 N8:N27 N48:N1048576 M49:M52">
       <formula1>"+,4"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C1048576" xr:uid="{00064761-105A-441E-A5D5-8FED3314107D}">
+    <dataValidation type="whole" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C1048576">
       <formula1>1E+21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Введите или выберите устройство из списка" prompt="Выберите устройство" sqref="S6:S1048576" xr:uid="{F4A9E8EF-D8FD-463A-B981-E2F1AB78F67B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Введите или выберите устройство из списка" prompt="Выберите устройство" sqref="S6:S1048576">
       <formula1>"Освещение,Щит,Розетка,Электровывод"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B1048576" xr:uid="{E48EE5F2-5608-43EC-B5BA-8AFD376CEB1F}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D48 B6:B48 B54:B1048576">
       <formula1>"ИЛИ(ЯЧЕЙКА(""тип""; B1)=""v""; ЦЕЛОЕ(B1)=B1)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21497,7 +21679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B4BDB4-9077-4ADA-8982-19377929A552}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>

--- a/Рабочий.xlsx
+++ b/Рабочий.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmer\Front-end\Project\SchemeMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Huawei\NA_pc\GitHub\SchemeMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D94A600-AE03-43DA-8140-5779A01F21DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Схема" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <definedName name="ФИО2">Штамп!$C$6</definedName>
     <definedName name="Фирма">Штамп!$H$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="149">
   <si>
     <t>Данные таблицы</t>
   </si>
@@ -492,12 +491,15 @@
   </si>
   <si>
     <t>ИП Электрик</t>
+  </si>
+  <si>
+    <t>АВР 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1416,13 +1418,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1678,9 +1680,7 @@
       <c r="M6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N6" s="18"/>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
@@ -1766,9 +1766,7 @@
       <c r="M8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N8" s="18"/>
       <c r="O8" s="17" t="s">
         <v>55</v>
       </c>
@@ -1821,9 +1819,7 @@
       <c r="M9" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N9" s="18"/>
       <c r="O9" s="17" t="s">
         <v>55</v>
       </c>
@@ -1876,9 +1872,7 @@
       <c r="M10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N10" s="18"/>
       <c r="O10" s="17" t="s">
         <v>55</v>
       </c>
@@ -1931,9 +1925,7 @@
       <c r="M11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N11" s="18"/>
       <c r="O11" s="17" t="s">
         <v>67</v>
       </c>
@@ -2188,9 +2180,7 @@
       <c r="M16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N16" s="18"/>
       <c r="O16" s="17" t="s">
         <v>80</v>
       </c>
@@ -2241,9 +2231,7 @@
       <c r="M17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="N17" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N17" s="18"/>
       <c r="O17" s="17" t="s">
         <v>80</v>
       </c>
@@ -2290,9 +2278,7 @@
       <c r="M18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N18" s="18"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
@@ -2343,9 +2329,7 @@
       <c r="M19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N19" s="18"/>
       <c r="O19" s="17" t="s">
         <v>55</v>
       </c>
@@ -2396,9 +2380,7 @@
       <c r="M20" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="N20" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N20" s="18"/>
       <c r="O20" s="17" t="s">
         <v>80</v>
       </c>
@@ -2449,9 +2431,7 @@
       <c r="M21" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="N21" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N21" s="18"/>
       <c r="O21" s="17" t="s">
         <v>55</v>
       </c>
@@ -2504,9 +2484,7 @@
       <c r="M22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N22" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N22" s="18"/>
       <c r="O22" s="17" t="s">
         <v>55</v>
       </c>
@@ -2543,9 +2521,7 @@
       <c r="M23" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N23" s="18"/>
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
@@ -2590,9 +2566,7 @@
       <c r="M24" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N24" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N24" s="18"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
@@ -2641,9 +2615,7 @@
       <c r="M25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N25" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N25" s="18"/>
       <c r="O25" s="17" t="s">
         <v>55</v>
       </c>
@@ -2696,9 +2668,7 @@
       <c r="M26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="N26" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N26" s="18"/>
       <c r="O26" s="17" t="s">
         <v>97</v>
       </c>
@@ -2751,9 +2721,7 @@
       <c r="M27" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="N27" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="N27" s="18"/>
       <c r="O27" s="17" t="s">
         <v>80</v>
       </c>
@@ -3964,6 +3932,284 @@
         <v>57</v>
       </c>
     </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N54" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O54" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="S54" s="17"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="17">
+        <v>1</v>
+      </c>
+      <c r="C55" s="17">
+        <v>1</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K55" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N55" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O55" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="S55" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="17">
+        <v>2</v>
+      </c>
+      <c r="C56" s="17">
+        <v>2</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N56" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O56" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="S56" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="17">
+        <v>3</v>
+      </c>
+      <c r="C57" s="17">
+        <v>3</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N57" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O57" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="S57" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="17">
+        <v>4</v>
+      </c>
+      <c r="C58" s="17">
+        <v>4</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K58" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N58" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O58" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="S58" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="17">
+        <v>5</v>
+      </c>
+      <c r="C59" s="17">
+        <v>5</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N59" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O59" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="S59" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:S1"/>
@@ -3971,25 +4217,25 @@
     <mergeCell ref="A4:S4"/>
   </mergeCells>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N53" xr:uid="{AF8F2C43-9BC6-4C20-8567-FDE4A4AEF7DE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N59">
       <formula1>"+"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D53" xr:uid="{F917AE79-4696-4E23-AC57-5F77B92F8908}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D59">
       <formula1>"QD,QF,QFD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Введите или выберите устройство из списка" prompt="Выберите устройство" sqref="S6:S53" xr:uid="{FA5D15F7-8268-4C54-B4F6-8E8907736570}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Введите или выберите устройство из списка" prompt="Выберите устройство" sqref="S6:S59">
       <formula1>"Освещение,Щит,Розетка,Электровывод"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите назание вводного щита_x000a_Для каждого элемента щита это значение должно повторятся" sqref="A5" xr:uid="{46192DDE-5C0B-4E64-ADCB-A73C5561EDFC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите номинал в амперах" sqref="G5" xr:uid="{C26594C4-2AE2-426E-9976-54D6C20DD5CC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите ток утечки УЗО в милиамперах" sqref="I5" xr:uid="{7636BE2B-325D-4551-B223-6688B3FBA57F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите длину кабеля в метрах" sqref="L5" xr:uid="{BFC4FDE6-785E-4D67-88CA-02E15F6E8CCA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите фазу по следующему образцу:_x000a_1,2,3 или 1,3 или 2" sqref="M5" xr:uid="{0A9A8A96-A35C-4080-85DA-CF41CE92D3D3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="При наличии шины заземления выберите значение из списка, иначе не заполяйте эту ячейку" sqref="N5" xr:uid="{F090EFA1-DEA3-4AC7-B9E8-2CC0C9A5FD5C}"/>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Введено не число, либо число меньше либо равное 0" prompt="Введите число" sqref="F28:F47 F49:F53 G6:G53" xr:uid="{A287FAAB-BDBC-4D45-ACED-6D9453320BB0}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите назание вводного щита_x000a_Для каждого элемента щита это значение должно повторятся" sqref="A5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите номинал в амперах" sqref="G5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите ток утечки УЗО в милиамперах" sqref="I5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите длину кабеля в метрах" sqref="L5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите фазу по следующему образцу:_x000a_1,2,3 или 1,3 или 2" sqref="M5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="При наличии шины заземления выберите значение из списка, иначе не заполяйте эту ячейку" sqref="N5"/>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Введено не число, либо число меньше либо равное 0" prompt="Введите число" sqref="F28:F47 F49:F53 G6:G59 F55:F59">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M28:M47 M49:M52" xr:uid="{1E15ADB6-1288-4C29-8388-19916148A8C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M28:M47 M49:M52 M55:M58">
       <formula1>"+,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3998,7 +4244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AD19E8-FE9F-4B8F-8479-A617572C7D9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Рабочий.xlsx
+++ b/Рабочий.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Huawei\NA_pc\GitHub\SchemeMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmer\Front-end\Project\SchemeMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F4A36D-1462-470B-81CA-DC7E840B9DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Схема" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
     <definedName name="ФИО2">Штамп!$C$6</definedName>
     <definedName name="Фирма">Штамп!$H$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -499,7 +500,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1418,16 +1419,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
     <col min="2" max="2" width="16.21875" customWidth="1"/>
@@ -1446,7 +1447,7 @@
     <col min="19" max="19" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1470,7 @@
       <c r="R1" s="25"/>
       <c r="S1" s="26"/>
     </row>
-    <row r="2" spans="1:19" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1512,7 +1513,7 @@
       <c r="R2" s="28"/>
       <c r="S2" s="29"/>
     </row>
-    <row r="3" spans="1:19" ht="24" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="str">
         <f>Артикул</f>
         <v>01.25 ЭОМ</v>
@@ -1566,7 +1567,7 @@
       <c r="R3" s="31"/>
       <c r="S3" s="32"/>
     </row>
-    <row r="4" spans="1:19" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>12</v>
       </c>
@@ -1589,7 +1590,7 @@
       <c r="R4" s="34"/>
       <c r="S4" s="35"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>32</v>
       </c>
@@ -1689,7 +1690,7 @@
       </c>
       <c r="S6" s="17"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>32</v>
       </c>
@@ -1718,7 +1719,9 @@
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="M7" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="N7" s="18"/>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
@@ -1726,7 +1729,7 @@
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>32</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>32</v>
       </c>
@@ -1832,7 +1835,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>32</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
         <v>32</v>
       </c>
@@ -1922,8 +1925,8 @@
       <c r="L11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="17" t="s">
-        <v>40</v>
+      <c r="M11" s="17">
+        <v>123</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="17" t="s">
@@ -1938,7 +1941,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>32</v>
       </c>
@@ -1971,8 +1974,8 @@
       <c r="L12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="17" t="s">
-        <v>40</v>
+      <c r="M12" s="17">
+        <v>123</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="17" t="s">
@@ -1987,7 +1990,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>32</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
         <v>32</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>32</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>32</v>
       </c>
@@ -2193,7 +2196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>32</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>32</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>32</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>32</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>32</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>32</v>
       </c>
@@ -2497,7 +2500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>32</v>
       </c>
@@ -2530,7 +2533,7 @@
       </c>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>32</v>
       </c>
@@ -2575,7 +2578,7 @@
       </c>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>32</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>32</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>32</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>102</v>
       </c>
@@ -2765,7 +2768,7 @@
       </c>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>102</v>
       </c>
@@ -2782,7 +2785,9 @@
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
       <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
+      <c r="M29" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="N29" s="17"/>
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
@@ -2790,7 +2795,7 @@
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>102</v>
       </c>
@@ -2839,7 +2844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>102</v>
       </c>
@@ -2888,7 +2893,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>102</v>
       </c>
@@ -2937,7 +2942,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>102</v>
       </c>
@@ -2980,7 +2985,7 @@
       </c>
       <c r="S33" s="17"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>102</v>
       </c>
@@ -3023,7 +3028,7 @@
       </c>
       <c r="S34" s="17"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>102</v>
       </c>
@@ -3072,7 +3077,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="s">
         <v>102</v>
       </c>
@@ -3121,7 +3126,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>102</v>
       </c>
@@ -3170,7 +3175,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
         <v>102</v>
       </c>
@@ -3219,7 +3224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17" t="s">
         <v>102</v>
       </c>
@@ -3268,7 +3273,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>102</v>
       </c>
@@ -3317,7 +3322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
         <v>102</v>
       </c>
@@ -3360,7 +3365,7 @@
       </c>
       <c r="S41" s="17"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>102</v>
       </c>
@@ -3409,7 +3414,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17" t="s">
         <v>102</v>
       </c>
@@ -3458,7 +3463,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>102</v>
       </c>
@@ -3507,7 +3512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>102</v>
       </c>
@@ -3556,7 +3561,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>102</v>
       </c>
@@ -3605,7 +3610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>102</v>
       </c>
@@ -3654,7 +3659,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>130</v>
       </c>
@@ -3687,7 +3692,7 @@
       </c>
       <c r="S48" s="17"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>130</v>
       </c>
@@ -3736,7 +3741,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>130</v>
       </c>
@@ -3785,7 +3790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>130</v>
       </c>
@@ -3834,7 +3839,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>130</v>
       </c>
@@ -3883,7 +3888,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17" t="s">
         <v>130</v>
       </c>
@@ -3932,7 +3937,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>148</v>
       </c>
@@ -3965,7 +3970,7 @@
       </c>
       <c r="S54" s="17"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>148</v>
       </c>
@@ -4014,7 +4019,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>148</v>
       </c>
@@ -4063,7 +4068,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>148</v>
       </c>
@@ -4112,7 +4117,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17" t="s">
         <v>148</v>
       </c>
@@ -4161,7 +4166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17" t="s">
         <v>148</v>
       </c>
@@ -4217,26 +4222,26 @@
     <mergeCell ref="A4:S4"/>
   </mergeCells>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N59" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"+"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D59" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"QD,QF,QFD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Введите или выберите устройство из списка" prompt="Выберите устройство" sqref="S6:S59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Введите или выберите устройство из списка" prompt="Выберите устройство" sqref="S6:S59" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Освещение,Щит,Розетка,Электровывод"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите назание вводного щита_x000a_Для каждого элемента щита это значение должно повторятся" sqref="A5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите номинал в амперах" sqref="G5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите ток утечки УЗО в милиамперах" sqref="I5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите длину кабеля в метрах" sqref="L5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите фазу по следующему образцу:_x000a_1,2,3 или 1,3 или 2" sqref="M5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="При наличии шины заземления выберите значение из списка, иначе не заполяйте эту ячейку" sqref="N5"/>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Введено не число, либо число меньше либо равное 0" prompt="Введите число" sqref="F28:F47 F49:F53 G6:G59 F55:F59">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите назание вводного щита_x000a_Для каждого элемента щита это значение должно повторятся" sqref="A5" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите номинал в амперах" sqref="G5" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите ток утечки УЗО в милиамперах" sqref="I5" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите длину кабеля в метрах" sqref="L5" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите фазу по следующему образцу:_x000a_1,2,3 или 1,3 или 2" sqref="M5" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="При наличии шины заземления выберите значение из списка, иначе не заполяйте эту ячейку" sqref="N5" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Ошибка" error="Введено не число, либо число меньше либо равное 0" prompt="Введите число" sqref="F28:F47 F49:F53 G6:G59 F55:F59" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M28:M47 M49:M52 M55:M58">
-      <formula1>"+,4"</formula1>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Введено не число или число меньше 0" sqref="L6:L1048576" xr:uid="{6F0623AB-AEC0-4409-A0F8-7F35BD25EFDF}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4244,7 +4249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Рабочий.xlsx
+++ b/Рабочий.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmer\Front-end\Project\SchemeMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F4A36D-1462-470B-81CA-DC7E840B9DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E460159-4B12-4AAA-A5FE-0E65611F5453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1423,9 +1423,9 @@
   <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="M57" sqref="M57"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4221,7 +4221,7 @@
     <mergeCell ref="L2:S3"/>
     <mergeCell ref="A4:S4"/>
   </mergeCells>
-  <dataValidations count="11">
+  <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N59" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"+"</formula1>
     </dataValidation>
@@ -4241,6 +4241,9 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ошибка" error="Введено не число или число меньше 0" sqref="L6:L1048576" xr:uid="{6F0623AB-AEC0-4409-A0F8-7F35BD25EFDF}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I1048576" xr:uid="{34E2E6C6-3A52-432F-AF53-DFD8B7F09DCD}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
